--- a/VersionRecords/Version TP/版本Bug和特性计划及评审表vTP_EQ组.xlsx
+++ b/VersionRecords/Version TP/版本Bug和特性计划及评审表vTP_EQ组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.1.9.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -250,12 +250,6 @@
   </si>
   <si>
     <t>EQ组</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>renterpc
-renter
-rentertp</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -300,6 +294,46 @@
   <si>
     <t>找房模块为TP设置独立的缓存服务器</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentertp</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+  </si>
+  <si>
+    <t>rentertp</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎切换新的数据结构</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+  </si>
+  <si>
+    <t>sysconfig.ELASTIC_SEARCHROOM_ROOM_TYPE=mogoroom</t>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -526,13 +560,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -558,6 +585,12 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -792,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,64 +1090,52 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1633,15 +1654,15 @@
       <c r="E2" s="38"/>
       <c r="F2" s="40"/>
       <c r="G2" s="38"/>
-      <c r="H2" s="107"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="38"/>
-      <c r="J2" s="107"/>
+      <c r="J2" s="103"/>
       <c r="K2" s="38"/>
       <c r="L2" s="47"/>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
       <c r="O2" s="47"/>
-      <c r="P2" s="107"/>
+      <c r="P2" s="103"/>
       <c r="Q2" s="47"/>
       <c r="R2" s="47"/>
       <c r="S2" s="44"/>
@@ -1653,7 +1674,7 @@
       <c r="A3" s="80"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
-      <c r="D3" s="106"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
@@ -1667,9 +1688,9 @@
       <c r="O3" s="44"/>
       <c r="P3" s="39"/>
       <c r="Q3" s="47"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
       <c r="U3" s="52"/>
       <c r="V3" s="51"/>
     </row>
@@ -1687,7 +1708,7 @@
       <c r="K4" s="38"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
-      <c r="N4" s="92"/>
+      <c r="N4" s="88"/>
       <c r="O4" s="44"/>
       <c r="P4" s="39"/>
       <c r="Q4" s="47"/>
@@ -1710,7 +1731,7 @@
       <c r="K5" s="38"/>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
-      <c r="N5" s="92"/>
+      <c r="N5" s="88"/>
       <c r="O5" s="44"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="47"/>
@@ -1733,16 +1754,16 @@
       <c r="K6" s="38"/>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
-      <c r="N6" s="92"/>
+      <c r="N6" s="88"/>
       <c r="O6" s="44"/>
       <c r="P6" s="39"/>
-      <c r="Q6" s="94"/>
+      <c r="Q6" s="90"/>
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:22" s="99" customFormat="1" ht="21.75" customHeight="1">
+    <row r="7" spans="1:22" s="95" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="80"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1751,20 +1772,20 @@
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="39"/>
-      <c r="I7" s="95"/>
+      <c r="I7" s="91"/>
       <c r="J7" s="39"/>
       <c r="K7" s="36"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
-      <c r="N7" s="92"/>
+      <c r="N7" s="88"/>
       <c r="O7" s="44"/>
       <c r="P7" s="39"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="98"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="94"/>
     </row>
     <row r="8" spans="1:22" ht="21.75" customHeight="1">
       <c r="A8" s="80"/>
@@ -1778,12 +1799,12 @@
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
       <c r="K8" s="38"/>
-      <c r="L8" s="100"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="47"/>
-      <c r="N8" s="92"/>
+      <c r="N8" s="88"/>
       <c r="O8" s="44"/>
       <c r="P8" s="39"/>
-      <c r="Q8" s="94"/>
+      <c r="Q8" s="90"/>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
@@ -1803,10 +1824,10 @@
       <c r="K9" s="38"/>
       <c r="L9" s="47"/>
       <c r="M9" s="47"/>
-      <c r="N9" s="92"/>
+      <c r="N9" s="88"/>
       <c r="O9" s="44"/>
       <c r="P9" s="39"/>
-      <c r="Q9" s="94"/>
+      <c r="Q9" s="90"/>
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
       <c r="T9" s="44"/>
@@ -1814,50 +1835,50 @@
     </row>
     <row r="10" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="80"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="82"/>
       <c r="F10" s="82"/>
       <c r="G10" s="82"/>
-      <c r="H10" s="103"/>
+      <c r="H10" s="99"/>
       <c r="I10" s="82"/>
-      <c r="J10" s="103"/>
+      <c r="J10" s="99"/>
       <c r="K10" s="82"/>
       <c r="L10" s="85"/>
       <c r="M10" s="82"/>
       <c r="N10" s="82"/>
       <c r="O10" s="85"/>
-      <c r="P10" s="103"/>
+      <c r="P10" s="99"/>
       <c r="Q10" s="85"/>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="104"/>
+      <c r="U10" s="100"/>
       <c r="V10" s="51"/>
     </row>
     <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A11" s="80"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="82"/>
       <c r="F11" s="82"/>
       <c r="G11" s="82"/>
-      <c r="H11" s="103"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="82"/>
-      <c r="J11" s="103"/>
+      <c r="J11" s="99"/>
       <c r="K11" s="82"/>
       <c r="L11" s="85"/>
       <c r="M11" s="82"/>
       <c r="N11" s="82"/>
       <c r="O11" s="85"/>
-      <c r="P11" s="103"/>
+      <c r="P11" s="99"/>
       <c r="Q11" s="85"/>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="105"/>
+      <c r="U11" s="101"/>
       <c r="V11" s="51"/>
     </row>
     <row r="12" spans="1:22" ht="16.5">
@@ -5596,19 +5617,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5646,8 +5667,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5659,8 +5680,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="112"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5672,8 +5693,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5685,8 +5706,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5698,8 +5719,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5711,8 +5732,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5724,8 +5745,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5737,8 +5758,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5779,8 +5800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -5799,36 +5820,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -5871,7 +5892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="49.5">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -5879,32 +5900,32 @@
         <v>67</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="M4" s="11"/>
     </row>
@@ -5917,48 +5938,70 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="I5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
+    <row r="6" spans="1:13" ht="111.95" customHeight="1">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9"/>
+      <c r="D6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -6138,7 +6181,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6157,36 +6200,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6229,7 +6272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="49.5">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6238,31 +6281,31 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="M4" s="11"/>
     </row>
@@ -6275,48 +6318,70 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="I5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
+    <row r="6" spans="1:13" ht="111.95" customHeight="1">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -6477,10 +6542,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 WBY6 VSC6 VIG6 UYK6 UOO6 UES6 TUW6 TLA6 TBE6 SRI6 SHM6 RXQ6 RNU6 RDY6 QUC6 QKG6 QAK6 PQO6 PGS6 OWW6 ONA6 ODE6 NTI6 NJM6 MZQ6 MPU6 MFY6 LWC6 LMG6 LCK6 KSO6 KIS6 JYW6 JPA6 JFE6 IVI6 ILM6 IBQ6 HRU6 HHY6 GYC6 GOG6 GEK6 FUO6 FKS6 FAW6 ERA6 EHE6 DXI6 DNM6 DDQ6 CTU6 CJY6 CAC6 BQG6 BGK6 AWO6 AMS6 ACW6 TA6 JE6 WVQ6 WLU6 I4:I5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WLR6 WBV6 VRZ6 VID6 UYH6 UOL6 UEP6 TUT6 TKX6 TBB6 SRF6 SHJ6 RXN6 RNR6 RDV6 QTZ6 QKD6 QAH6 PQL6 PGP6 OWT6 OMX6 ODB6 NTF6 NJJ6 MZN6 MPR6 MFV6 LVZ6 LMD6 LCH6 KSL6 KIP6 JYT6 JOX6 JFB6 IVF6 ILJ6 IBN6 HRR6 HHV6 GXZ6 GOD6 GEH6 FUL6 FKP6 FAT6 EQX6 EHB6 DXF6 DNJ6 DDN6 CTR6 CJV6 BZZ6 BQD6 BGH6 AWL6 AMP6 ACT6 SX6 JB6 F4:F16 WVN6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
@@ -6496,7 +6561,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6515,36 +6580,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6587,7 +6652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="49.5">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6596,31 +6661,31 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="I4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="M4" s="11"/>
     </row>
@@ -6633,48 +6698,70 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="I5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
+    <row r="6" spans="1:13" ht="111.95" customHeight="1">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -6835,10 +6922,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 ACW6 AMS6 AWO6 BGK6 BQG6 CAC6 CJY6 CTU6 DDQ6 DNM6 DXI6 EHE6 ERA6 FAW6 FKS6 FUO6 GEK6 GOG6 GYC6 HHY6 HRU6 IBQ6 ILM6 IVI6 JFE6 JPA6 JYW6 KIS6 KSO6 LCK6 LMG6 LWC6 MFY6 MPU6 MZQ6 NJM6 NTI6 ODE6 ONA6 OWW6 PGS6 PQO6 QAK6 QKG6 QUC6 RDY6 RNU6 RXQ6 SHM6 SRI6 TBE6 TLA6 TUW6 UES6 UOO6 UYK6 VIG6 VSC6 WBY6 WLU6 WVQ6 JE6 TA6 I4:I5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WBV6 VRZ6 VID6 UYH6 UOL6 UEP6 TUT6 TKX6 TBB6 SRF6 SHJ6 RXN6 RNR6 RDV6 QTZ6 QKD6 QAH6 PQL6 PGP6 OWT6 OMX6 ODB6 NTF6 NJJ6 MZN6 MPR6 MFV6 LVZ6 LMD6 LCH6 KSL6 KIP6 JYT6 JOX6 JFB6 IVF6 ILJ6 IBN6 HRR6 HHV6 GXZ6 GOD6 GEH6 FUL6 FKP6 FAT6 EQX6 EHB6 DXF6 DNJ6 DDN6 CTR6 CJV6 BZZ6 BQD6 BGH6 AWL6 AMP6 ACT6 SX6 JB6 WVN6 F4:F16 WLR6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
@@ -6853,8 +6940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6875,36 +6962,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6947,7 +7034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="49.5">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6956,31 +7043,31 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="M4" s="11"/>
     </row>
@@ -6993,48 +7080,70 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="I5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="91" customFormat="1" ht="16.5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
+    <row r="6" spans="1:13" ht="111.95" customHeight="1">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -7192,13 +7301,13 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WBV6 VRZ6 VID6 UYH6 UOL6 UEP6 TUT6 TKX6 TBB6 SRF6 SHJ6 RXN6 RNR6 RDV6 QTZ6 QKD6 QAH6 PQL6 PGP6 OWT6 OMX6 ODB6 NTF6 NJJ6 MZN6 MPR6 MFV6 LVZ6 LMD6 LCH6 KSL6 KIP6 JYT6 JOX6 JFB6 IVF6 ILJ6 IBN6 HRR6 HHV6 GXZ6 GOD6 GEH6 FUL6 FKP6 FAT6 EQX6 EHB6 DXF6 DNJ6 DDN6 CTR6 CJV6 BZZ6 BQD6 BGH6 AWL6 AMP6 ACT6 SX6 JB6 WVN6 F4:F16 WLR6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 ACW6 AMS6 AWO6 BGK6 BQG6 CAC6 CJY6 CTU6 DDQ6 DNM6 DXI6 EHE6 ERA6 FAW6 FKS6 FUO6 GEK6 GOG6 GYC6 HHY6 HRU6 IBQ6 ILM6 IVI6 JFE6 JPA6 JYW6 KIS6 KSO6 LCK6 LMG6 LWC6 MFY6 MPU6 MZQ6 NJM6 NTI6 ODE6 ONA6 OWW6 PGS6 PQO6 QAK6 QKG6 QUC6 RDY6 RNU6 RXQ6 SHM6 SRI6 TBE6 TLA6 TUW6 UES6 UOO6 UYK6 VIG6 VSC6 WBY6 WLU6 WVQ6 JE6 TA6 I4:I5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">

--- a/VersionRecords/Version TP/版本Bug和特性计划及评审表vTP_EQ组.xlsx
+++ b/VersionRecords/Version TP/版本Bug和特性计划及评审表vTP_EQ组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.1.9.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="112">
   <si>
     <t>No</t>
   </si>
@@ -335,12 +335,132 @@
     <t>sysconfig.ELASTIC_SEARCHROOM_ROOM_TYPE=mogoroom</t>
     <phoneticPr fontId="35" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>不用填</t>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>C端可显示房源全量同步至ES的mogoroom表</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomSearchTask</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomSearchTask</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomSearchTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌晨4:00执行</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>是，依赖roomprice和roomscore的结果</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步单词联想数据至ES的wordHint表</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.KeywordTask</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeywordTask</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"taskImpl":"com.mogoroom.tasktracker.task.KeywordTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是代码层面修改，配置不需要任何改动</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -592,6 +712,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -825,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1137,6 +1280,48 @@
     </xf>
     <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5450,8 +5635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -5530,45 +5715,109 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
+    <row r="2" spans="1:18" ht="77.25" customHeight="1">
+      <c r="A2" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="117" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="77.25" customHeight="1">
+      <c r="A3" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="115"/>
+      <c r="P3" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="117"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="62"/>
@@ -5617,19 +5866,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5667,8 +5916,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5680,8 +5929,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="122"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5693,8 +5942,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5706,8 +5955,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5719,8 +5968,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
+      <c r="A7" s="122"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5732,8 +5981,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
+      <c r="A8" s="122"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5745,8 +5994,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5758,8 +6007,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5800,7 +6049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -5820,36 +6069,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6200,36 +6449,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6580,36 +6829,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6962,36 +7211,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
